--- a/assets/base_emails.xlsx
+++ b/assets/base_emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Comissões\Leonardo Naar\Automacao_Bitrix_Dashboard\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36B5B9D-B9B9-4A62-A82A-75A309C077F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA495E10-B471-4FD9-8210-1EB2CAE6D0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-11520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>NOME</t>
   </si>
@@ -42,9 +42,6 @@
     <t>NOME FILIAL/EQUIPE</t>
   </si>
   <si>
-    <t>TELEFONE</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>antonio.cardoso@investsmart.com.br</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO WERMELINGER</t>
+  </si>
+  <si>
+    <t>carlos.mw@investsmart.com.br</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,10 +434,9 @@
     <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,42 +444,44 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>21998892234</v>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>21993640658</v>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/assets/base_emails.xlsx
+++ b/assets/base_emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Comissões\Leonardo Naar\Automacao_Bitrix_Dashboard\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA495E10-B471-4FD9-8210-1EB2CAE6D0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6ECAD-ADED-4CBC-9915-96BAA9F7D7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-11520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>NOME</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>antonio.cardoso@investsmart.com.br</t>
-  </si>
-  <si>
-    <t>CARLOS EDUARDO WERMELINGER</t>
-  </si>
-  <si>
-    <t>carlos.mw@investsmart.com.br</t>
   </si>
 </sst>
 </file>
@@ -105,10 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,19 +458,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/assets/base_emails.xlsx
+++ b/assets/base_emails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Comissões\Leonardo Naar\Automacao_Bitrix_Dashboard\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6ECAD-ADED-4CBC-9915-96BAA9F7D7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2053F9C6-39E7-403C-BF82-8C399CBCA25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-11520" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>NOME</t>
   </si>
@@ -58,13 +58,25 @@
   </si>
   <si>
     <t>antonio.cardoso@investsmart.com.br</t>
+  </si>
+  <si>
+    <t>MILLENA POLIZZO</t>
+  </si>
+  <si>
+    <t>PEDRO DANTAS</t>
+  </si>
+  <si>
+    <t>millena.polizzo@besmart.com.br</t>
+  </si>
+  <si>
+    <t>pedro.dantas@investsmart.com.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -99,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -120,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -266,7 +279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,20 +429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -451,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -460,6 +473,28 @@
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
